--- a/RA/Praktikum4/Berechnungen_CPI_MIPS.xlsx
+++ b/RA/Praktikum4/Berechnungen_CPI_MIPS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>MIPS</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>130 Millionen Befehle</t>
+  </si>
+  <si>
+    <t>MIPS-Wert ohne Loc</t>
+  </si>
+  <si>
+    <t>80 Mio Befehle</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -485,6 +491,20 @@
       <c r="C12">
         <f>130/1.6</f>
         <v>81.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15">
+        <f>80/1.6</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
